--- a/university/kent/marking_sheets_generator/Master_Marking_Sheet.xlsx
+++ b/university/kent/marking_sheets_generator/Master_Marking_Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eFiles\Dev\Reposities\GitHub\Repos\teaching\university\kent\marking_sheets_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591ABC1B-D2AA-41A2-9889-299B9E72DD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510B56F-CE47-467B-AB16-39B9687827E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="5640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A7" sheetId="3" r:id="rId1"/>
+    <sheet name="A1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
